--- a/10-steel/DP1/DP1.xlsx
+++ b/10-steel/DP1/DP1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyran/Documents/GitHub/matlab/10-steel/DP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\matlab\10-steel\DP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A4AD69E-5562-994D-BEA6-42CFC99EAB99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945"/>
   </bookViews>
   <sheets>
     <sheet name="Lateral Force" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="402">
   <si>
     <t>Averaged concrete slab weight</t>
   </si>
@@ -1079,7 +1078,7 @@
   </si>
   <si>
     <t>Brace force(kgf)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3F</t>
@@ -2032,6 +2031,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uniform load(tf/m2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area(m2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成開窗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成開窗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>W</t>
     </r>
@@ -2041,8 +2112,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>x</t>
     </r>
@@ -2051,8 +2122,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>h</t>
     </r>
@@ -2062,8 +2133,8 @@
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>x</t>
     </r>
@@ -2072,8 +2143,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>(tf-m)</t>
     </r>
@@ -2083,13 +2154,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2163,14 +2234,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
@@ -2210,13 +2273,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2635,17 +2735,17 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2793,109 +2893,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2939,6 +2964,132 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2947,7 +3098,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="中等" xfId="4" builtinId="28"/>
     <cellStyle name="好" xfId="5" builtinId="26"/>
-    <cellStyle name="輔色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="輔色1" xfId="1" builtinId="29"/>
     <cellStyle name="壞" xfId="6" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3292,220 +3443,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="C3:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.875" style="73"/>
+    <col min="3" max="3" width="8" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="73"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="16" thickBot="1"/>
-    <row r="4" spans="3:12" ht="16" thickBot="1">
-      <c r="C4" s="76" t="s">
+    <row r="3" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-    </row>
-    <row r="5" spans="3:12" ht="17" thickTop="1">
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="63" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+    </row>
+    <row r="5" spans="3:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97" t="s">
         <v>394</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="98">
         <f>質量!G29*0.1576</f>
         <v>442.37689600000004</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="99" t="s">
         <v>395</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="100">
         <f>質量!G29*0.1905</f>
         <v>534.72588000000007</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" spans="3:12" ht="18">
-      <c r="C6" s="59" t="s">
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+    </row>
+    <row r="6" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="G6" s="67" t="s">
+      <c r="F6" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="67" t="s">
+      <c r="H6" s="105"/>
+      <c r="I6" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="3:12" ht="16">
-      <c r="C7" s="59" t="s">
+      <c r="J6" s="106"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="107">
         <f>質量!G$10</f>
         <v>654.88000000000011</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="107">
         <v>16</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="78">
         <f>D7*E7</f>
         <v>10478.080000000002</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="108">
         <f>H$5*F7/F$11</f>
         <v>167.36982740535672</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="65">
+      <c r="H7" s="108"/>
+      <c r="I7" s="108">
         <f>J$5*F7/F$11</f>
         <v>202.3093408675156</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="3:12" ht="16">
-      <c r="C8" s="59" t="s">
+      <c r="J7" s="109"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="107">
         <f>質量!G$16</f>
         <v>717.36</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="107">
         <v>12</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="78">
         <f t="shared" ref="F8:F10" si="0">D8*E8</f>
         <v>8608.32</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="108">
         <f>H$5*F8/F$11</f>
         <v>137.50353429732166</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="65">
+      <c r="H8" s="108"/>
+      <c r="I8" s="108">
         <f>J$5*F8/F$11</f>
         <v>166.20826956624222</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-    </row>
-    <row r="9" spans="3:12" ht="16">
-      <c r="C9" s="59" t="s">
+      <c r="J8" s="109"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="107">
         <f>質量!G$22</f>
         <v>717.36</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="107">
         <v>8</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
         <v>5738.88</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="108">
         <f>H$5*F9/F$11</f>
         <v>91.669022864881114</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="65">
+      <c r="H9" s="108"/>
+      <c r="I9" s="108">
         <f>J$5*F9/F$11</f>
         <v>110.8055130441615</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-    </row>
-    <row r="10" spans="3:12" ht="16">
-      <c r="C10" s="59" t="s">
+      <c r="J9" s="109"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="107">
         <f>質量!G$28</f>
         <v>717.36</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="107">
         <v>4</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="78">
         <f t="shared" si="0"/>
         <v>2869.44</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="108">
         <f>H$5*F10/F$11</f>
         <v>45.834511432440557</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="65">
+      <c r="H10" s="108"/>
+      <c r="I10" s="108">
         <f>J$5*F10/F$11</f>
         <v>55.40275652208075</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-    </row>
-    <row r="11" spans="3:12" ht="17" thickBot="1">
-      <c r="C11" s="72" t="s">
+      <c r="J10" s="109"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="60">
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112">
         <f>SUM(F7:F10)</f>
         <v>27694.720000000001</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="113">
         <f>SUM(G7:H10)</f>
         <v>442.37689600000004</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="69">
+      <c r="H11" s="113"/>
+      <c r="I11" s="113">
         <f>SUM(I7:J10)</f>
         <v>534.72588000000007</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3532,36 +3685,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="48"/>
-    <col min="2" max="2" width="17.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="48" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="30"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>106</v>
       </c>
@@ -3579,7 +3732,7 @@
       </c>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>59</v>
       </c>
@@ -3600,7 +3753,7 @@
       </c>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>110</v>
       </c>
@@ -3621,7 +3774,7 @@
       </c>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>111</v>
       </c>
@@ -3642,7 +3795,7 @@
       </c>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>112</v>
       </c>
@@ -3663,7 +3816,7 @@
       </c>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -3671,24 +3824,24 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="96"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="45" t="s">
         <v>114</v>
       </c>
@@ -3699,7 +3852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>59</v>
       </c>
@@ -3726,7 +3879,7 @@
         <v>0.19279016765053128</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>110</v>
       </c>
@@ -3749,7 +3902,7 @@
         <v>0.87887358703449991</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>111</v>
       </c>
@@ -3772,7 +3925,7 @@
         <v>0.81525771646012246</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>112</v>
       </c>
@@ -3795,7 +3948,7 @@
         <v>0.90826023140268519</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>106</v>
       </c>
@@ -3815,7 +3968,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>59</v>
       </c>
@@ -3847,7 +4000,7 @@
         <v>149887.23750000008</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>110</v>
       </c>
@@ -3879,7 +4032,7 @@
         <v>149887.23750000008</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>111</v>
       </c>
@@ -3911,7 +4064,7 @@
         <v>209346.63750000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>112</v>
       </c>
@@ -3943,17 +4096,17 @@
         <v>209346.63750000007</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="93" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>40</v>
       </c>
@@ -3973,7 +4126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>59</v>
       </c>
@@ -3998,7 +4151,7 @@
         <v>21978.266016357</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>39</v>
       </c>
@@ -4023,7 +4176,7 @@
         <v>21978.266016357</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>37</v>
       </c>
@@ -4048,7 +4201,7 @@
         <v>30696.916998052278</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>9</v>
       </c>
@@ -4073,22 +4226,22 @@
         <v>30696.916998052278</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="93" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="97"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="72"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>40</v>
       </c>
@@ -4123,7 +4276,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>59</v>
       </c>
@@ -4166,7 +4319,7 @@
         <v>0.67164631838949362</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>39</v>
       </c>
@@ -4209,7 +4362,7 @@
         <v>0.67164631838949362</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>37</v>
       </c>
@@ -4252,7 +4405,7 @@
         <v>0.93808452733739112</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>9</v>
       </c>
@@ -4295,16 +4448,16 @@
         <v>0.93808452733739112</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="93" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-    </row>
-    <row r="35" spans="1:7" ht="48">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>106</v>
       </c>
@@ -4321,7 +4474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>59</v>
       </c>
@@ -4340,7 +4493,7 @@
         <v>104037.57217540425</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>110</v>
       </c>
@@ -4359,7 +4512,7 @@
         <v>198617.18324395356</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>111</v>
       </c>
@@ -4378,7 +4531,7 @@
         <v>206277.35009082779</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>112</v>
       </c>
@@ -4397,7 +4550,7 @@
         <v>367140.85387518688</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>106</v>
       </c>
@@ -4420,7 +4573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>59</v>
       </c>
@@ -4447,7 +4600,7 @@
         <v>0.25021061129245847</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>110</v>
       </c>
@@ -4474,7 +4627,7 @@
         <v>0.47767480337651169</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>111</v>
       </c>
@@ -4501,7 +4654,7 @@
         <v>0.1774657806089627</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>9</v>
       </c>
@@ -4544,484 +4697,486 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8EC4A5-B940-8A46-A0C9-435AE3942038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" style="73"/>
+    <col min="3" max="3" width="3.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="73"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="16" thickBot="1"/>
-    <row r="4" spans="3:8" ht="16">
-      <c r="C4" s="1"/>
-      <c r="D4" s="52" t="s">
+    <row r="3" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="74"/>
+      <c r="D4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="G4" s="52" t="s">
+      <c r="E4" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="76" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="16">
-      <c r="C5" s="81" t="s">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="78">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="78">
         <f>E5*F5</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="H5" s="54"/>
-    </row>
-    <row r="6" spans="3:8" ht="16">
-      <c r="C6" s="82"/>
-      <c r="D6" s="23" t="s">
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="80"/>
+      <c r="D6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="78">
         <v>0.15</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="78">
         <f>E6*F6</f>
         <v>162</v>
       </c>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="3:8" ht="16">
-      <c r="C7" s="82"/>
-      <c r="D7" s="23" t="s">
+      <c r="H6" s="79"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="80"/>
+      <c r="D7" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="78">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="78">
         <f>(36*2+30*2)*1.4</f>
         <v>184.79999999999998</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="78">
         <f>E7*F7</f>
         <v>18.48</v>
       </c>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="3:8" ht="16">
-      <c r="C8" s="82"/>
-      <c r="D8" s="23" t="s">
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="80"/>
+      <c r="D8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="78">
         <v>0.1</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="78">
         <f>E8*F8</f>
         <v>108</v>
       </c>
-      <c r="H8" s="54"/>
-    </row>
-    <row r="9" spans="3:8" ht="16">
-      <c r="C9" s="82"/>
-      <c r="D9" s="23" t="s">
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="80"/>
+      <c r="D9" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="78">
         <v>1</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="78">
         <v>64</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="78">
         <f>E9*F9</f>
         <v>64</v>
       </c>
-      <c r="H9" s="54"/>
-    </row>
-    <row r="10" spans="3:8" ht="16">
-      <c r="C10" s="83"/>
-      <c r="D10" s="84" t="s">
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="81"/>
+      <c r="D10" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="51">
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85">
         <f>SUM(G5:G9)</f>
         <v>654.88000000000011</v>
       </c>
-      <c r="H10" s="54"/>
-    </row>
-    <row r="11" spans="3:8" ht="16">
-      <c r="C11" s="81" t="s">
+      <c r="H10" s="79"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="78">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="78">
         <f>E11*F11</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="3:8" ht="16">
-      <c r="C12" s="82"/>
-      <c r="D12" s="23" t="s">
+      <c r="H11" s="79"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="80"/>
+      <c r="D12" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="78">
         <v>0.15</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="78">
         <f>E12*F12</f>
         <v>162</v>
       </c>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="3:8" ht="16">
-      <c r="C13" s="82"/>
-      <c r="D13" s="23" t="s">
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="80"/>
+      <c r="D13" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="78">
         <v>0.1</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="78">
         <f>(36*2+30*2)*4*0.7</f>
         <v>369.59999999999997</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="78">
         <f>E13*F13</f>
         <v>36.96</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="16">
-      <c r="C14" s="82"/>
-      <c r="D14" s="23" t="s">
+      <c r="H13" s="79" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="80"/>
+      <c r="D14" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="78">
         <v>0.1</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="78">
         <f>E14*F14</f>
         <v>108</v>
       </c>
-      <c r="H14" s="54"/>
-    </row>
-    <row r="15" spans="3:8" ht="16">
-      <c r="C15" s="82"/>
-      <c r="D15" s="23" t="s">
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="80"/>
+      <c r="D15" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="78">
         <v>0.1</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="78">
         <f>E15*F15</f>
         <v>108</v>
       </c>
-      <c r="H15" s="54"/>
-    </row>
-    <row r="16" spans="3:8" ht="16">
-      <c r="C16" s="83"/>
-      <c r="D16" s="84" t="s">
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="81"/>
+      <c r="D16" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="51">
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85">
         <f>SUM(G11:G15)</f>
         <v>717.36</v>
       </c>
-      <c r="H16" s="54"/>
-    </row>
-    <row r="17" spans="3:10" ht="16">
-      <c r="C17" s="81" t="s">
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="78">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="78">
         <f>E17*F17</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="H17" s="54"/>
-    </row>
-    <row r="18" spans="3:10" ht="16">
-      <c r="C18" s="82"/>
-      <c r="D18" s="23" t="s">
+      <c r="H17" s="79"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="80"/>
+      <c r="D18" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="78">
         <v>0.15</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="78">
         <f>E18*F18</f>
         <v>162</v>
       </c>
-      <c r="H18" s="54"/>
-    </row>
-    <row r="19" spans="3:10" ht="16">
-      <c r="C19" s="82"/>
-      <c r="D19" s="23" t="s">
+      <c r="H18" s="79"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="80"/>
+      <c r="D19" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="78">
         <v>0.1</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="78">
         <f>(36*2+30*2)*4*0.7</f>
         <v>369.59999999999997</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="78">
         <f>E19*F19</f>
         <v>36.96</v>
       </c>
-      <c r="H19" s="54" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="16">
-      <c r="C20" s="82"/>
-      <c r="D20" s="23" t="s">
+      <c r="H19" s="79" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="80"/>
+      <c r="D20" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="78">
         <v>0.1</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="78">
         <f>E20*F20</f>
         <v>108</v>
       </c>
-      <c r="H20" s="54"/>
-    </row>
-    <row r="21" spans="3:10" ht="16">
-      <c r="C21" s="82"/>
-      <c r="D21" s="23" t="s">
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="80"/>
+      <c r="D21" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="78">
         <v>0.1</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="78">
         <f>E21*F21</f>
         <v>108</v>
       </c>
-      <c r="H21" s="54"/>
-    </row>
-    <row r="22" spans="3:10" ht="16">
-      <c r="C22" s="83"/>
-      <c r="D22" s="84" t="s">
+      <c r="H21" s="79"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="81"/>
+      <c r="D22" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="51">
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85">
         <f>SUM(G17:G21)</f>
         <v>717.36</v>
       </c>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="3:10" ht="16">
-      <c r="C23" s="81" t="s">
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="78">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="78">
         <f>E23*F23</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" spans="3:10" ht="16">
-      <c r="C24" s="82"/>
-      <c r="D24" s="23" t="s">
+      <c r="H23" s="79"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="80"/>
+      <c r="D24" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="78">
         <v>0.15</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="78">
         <f>E24*F24</f>
         <v>162</v>
       </c>
-      <c r="H24" s="54"/>
-    </row>
-    <row r="25" spans="3:10" ht="16">
-      <c r="C25" s="82"/>
-      <c r="D25" s="23" t="s">
+      <c r="H24" s="79"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="80"/>
+      <c r="D25" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="78">
         <v>0.1</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="78">
         <f>(36*2+30*2)*4*0.7</f>
         <v>369.59999999999997</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="78">
         <f>E25*F25</f>
         <v>36.96</v>
       </c>
-      <c r="H25" s="54" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="16">
-      <c r="C26" s="82"/>
-      <c r="D26" s="23" t="s">
+      <c r="H25" s="79" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="80"/>
+      <c r="D26" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="78">
         <v>0.1</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="78">
         <f>E26*F26</f>
         <v>108</v>
       </c>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="3:10" ht="16">
-      <c r="C27" s="82"/>
-      <c r="D27" s="23" t="s">
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="80"/>
+      <c r="D27" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="78">
         <v>0.1</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="78">
         <f>36*30</f>
         <v>1080</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="78">
         <f>E27*F27</f>
         <v>108</v>
       </c>
-      <c r="H27" s="54"/>
-    </row>
-    <row r="28" spans="3:10" ht="16">
-      <c r="C28" s="83"/>
-      <c r="D28" s="84" t="s">
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="81"/>
+      <c r="D28" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="51">
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85">
         <f>SUM(G23:G27)</f>
         <v>717.36</v>
       </c>
-      <c r="H28" s="54"/>
-    </row>
-    <row r="29" spans="3:10" ht="17" thickBot="1">
-      <c r="C29" s="87" t="s">
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="55">
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89">
         <f>G10+G16+G22+G28</f>
         <v>2806.9600000000005</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="J29">
+      <c r="H29" s="90"/>
+      <c r="J29" s="73">
         <f>G29/30/36</f>
         <v>2.5990370370370375</v>
       </c>
@@ -5040,25 +5195,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE127961-708B-B943-93A0-8AA88E18E46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="50" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="49" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>385</v>
       </c>
@@ -5066,7 +5222,7 @@
         <v>484.04601651199999</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>128</v>
       </c>
@@ -5083,7 +5239,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>59</v>
       </c>
@@ -5100,7 +5256,7 @@
         <v>0.27924205456987061</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>130</v>
       </c>
@@ -5117,7 +5273,7 @@
         <v>241.88338722871507</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>131</v>
       </c>
@@ -5134,7 +5290,7 @@
         <v>161.25559148581007</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>390</v>
       </c>
@@ -5151,7 +5307,7 @@
         <v>80.627795742905036</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>391</v>
       </c>
@@ -5162,12 +5318,12 @@
         <v>484.04601651200005</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>385</v>
       </c>
@@ -5175,7 +5331,7 @@
         <v>562.51441371999999</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>128</v>
       </c>
@@ -5192,7 +5348,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>59</v>
       </c>
@@ -5209,7 +5365,7 @@
         <v>0.32450980950990826</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>130</v>
       </c>
@@ -5226,7 +5382,7 @@
         <v>281.09495195524511</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>131</v>
       </c>
@@ -5243,7 +5399,7 @@
         <v>187.39663463683004</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>390</v>
       </c>
@@ -5260,7 +5416,7 @@
         <v>93.698317318415022</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>391</v>
       </c>
@@ -5278,16 +5434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -5295,7 +5451,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -5303,7 +5459,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -5311,7 +5467,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -5319,7 +5475,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -5327,7 +5483,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -5335,7 +5491,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -5343,7 +5499,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -5351,7 +5507,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -5359,7 +5515,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -5367,7 +5523,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -5375,7 +5531,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -5383,7 +5539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -5391,7 +5547,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -5399,7 +5555,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -5407,7 +5563,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -5415,7 +5571,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -5423,7 +5579,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -5431,7 +5587,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -5439,7 +5595,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -5447,7 +5603,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -5455,7 +5611,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -5463,7 +5619,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -5471,7 +5627,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -5479,7 +5635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -5487,7 +5643,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>171</v>
       </c>
@@ -5495,7 +5651,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -5503,7 +5659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -5511,7 +5667,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>174</v>
       </c>
@@ -5519,7 +5675,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -5527,7 +5683,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -5535,7 +5691,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -5543,7 +5699,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -5551,7 +5707,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -5559,7 +5715,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -5567,7 +5723,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -5575,7 +5731,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -5583,7 +5739,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>183</v>
       </c>
@@ -5591,7 +5747,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5599,7 +5755,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>185</v>
       </c>
@@ -5607,7 +5763,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -5615,7 +5771,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>187</v>
       </c>
@@ -5623,7 +5779,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -5631,7 +5787,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -5639,7 +5795,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -5647,7 +5803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -5655,7 +5811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -5663,7 +5819,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -5671,7 +5827,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -5679,7 +5835,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -5687,7 +5843,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>196</v>
       </c>
@@ -5695,7 +5851,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -5703,7 +5859,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -5711,7 +5867,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -5719,7 +5875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -5727,7 +5883,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -5735,7 +5891,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -5743,7 +5899,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -5751,7 +5907,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -5759,7 +5915,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>205</v>
       </c>
@@ -5767,7 +5923,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>206</v>
       </c>
@@ -5775,7 +5931,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>207</v>
       </c>
@@ -5783,7 +5939,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -5791,7 +5947,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -5799,7 +5955,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -5807,7 +5963,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>211</v>
       </c>
@@ -5815,7 +5971,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -5823,7 +5979,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>213</v>
       </c>
@@ -5831,7 +5987,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>214</v>
       </c>
@@ -5839,7 +5995,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -5847,7 +6003,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>216</v>
       </c>
@@ -5855,7 +6011,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -5863,7 +6019,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -5871,7 +6027,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -5879,7 +6035,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -5887,7 +6043,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>221</v>
       </c>
@@ -5895,7 +6051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -5903,7 +6059,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -5911,7 +6067,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>224</v>
       </c>
@@ -5919,7 +6075,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>225</v>
       </c>
@@ -5927,7 +6083,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>226</v>
       </c>
@@ -5935,7 +6091,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>227</v>
       </c>
@@ -5943,7 +6099,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>228</v>
       </c>
@@ -5951,7 +6107,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>229</v>
       </c>
@@ -5959,7 +6115,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>230</v>
       </c>
@@ -5967,7 +6123,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>231</v>
       </c>
@@ -5975,7 +6131,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -5983,7 +6139,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -5991,7 +6147,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>234</v>
       </c>
@@ -5999,7 +6155,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>235</v>
       </c>
@@ -6007,7 +6163,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>236</v>
       </c>
@@ -6015,7 +6171,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>237</v>
       </c>
@@ -6023,7 +6179,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>238</v>
       </c>
@@ -6031,7 +6187,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>239</v>
       </c>
@@ -6039,7 +6195,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>240</v>
       </c>
@@ -6047,7 +6203,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>241</v>
       </c>
@@ -6055,7 +6211,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>242</v>
       </c>
@@ -6063,7 +6219,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>243</v>
       </c>
@@ -6071,7 +6227,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>244</v>
       </c>
@@ -6079,7 +6235,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>245</v>
       </c>
@@ -6087,7 +6243,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>246</v>
       </c>
@@ -6095,7 +6251,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>247</v>
       </c>
@@ -6103,7 +6259,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>248</v>
       </c>
@@ -6111,7 +6267,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>249</v>
       </c>
@@ -6119,7 +6275,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -6127,7 +6283,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -6135,7 +6291,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>252</v>
       </c>
@@ -6143,7 +6299,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -6151,7 +6307,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>254</v>
       </c>
@@ -6159,7 +6315,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>255</v>
       </c>
@@ -6167,7 +6323,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>256</v>
       </c>
@@ -6175,7 +6331,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -6183,7 +6339,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>258</v>
       </c>
@@ -6191,7 +6347,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>259</v>
       </c>
@@ -6199,7 +6355,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -6207,7 +6363,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>261</v>
       </c>
@@ -6215,7 +6371,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>262</v>
       </c>
@@ -6223,7 +6379,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>263</v>
       </c>
@@ -6231,7 +6387,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>264</v>
       </c>
@@ -6239,7 +6395,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>265</v>
       </c>
@@ -6247,7 +6403,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>266</v>
       </c>
@@ -6255,7 +6411,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>267</v>
       </c>
@@ -6263,7 +6419,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>268</v>
       </c>
@@ -6271,7 +6427,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>269</v>
       </c>
@@ -6279,7 +6435,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>270</v>
       </c>
@@ -6287,7 +6443,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>271</v>
       </c>
@@ -6295,7 +6451,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>272</v>
       </c>
@@ -6303,7 +6459,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>273</v>
       </c>
@@ -6311,7 +6467,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -6319,7 +6475,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>275</v>
       </c>
@@ -6327,7 +6483,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>276</v>
       </c>
@@ -6335,7 +6491,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>277</v>
       </c>
@@ -6343,7 +6499,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -6351,7 +6507,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>279</v>
       </c>
@@ -6359,7 +6515,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -6367,7 +6523,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -6375,7 +6531,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>282</v>
       </c>
@@ -6383,7 +6539,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>283</v>
       </c>
@@ -6391,7 +6547,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -6399,7 +6555,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>285</v>
       </c>
@@ -6407,7 +6563,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>286</v>
       </c>
@@ -6415,7 +6571,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>287</v>
       </c>
@@ -6423,7 +6579,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>288</v>
       </c>
@@ -6431,7 +6587,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>289</v>
       </c>
@@ -6439,7 +6595,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>290</v>
       </c>
@@ -6447,7 +6603,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -6455,7 +6611,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -6463,7 +6619,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>293</v>
       </c>
@@ -6471,7 +6627,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -6479,7 +6635,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -6487,7 +6643,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>296</v>
       </c>
@@ -6495,7 +6651,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>297</v>
       </c>
@@ -6510,34 +6666,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="10.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="11"/>
-    <col min="16" max="16" width="19.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -6579,8 +6735,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -6625,8 +6781,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19" thickBot="1">
-      <c r="A3" s="91"/>
+    <row r="3" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -6671,8 +6827,8 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18">
-      <c r="A4" s="91"/>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -6703,8 +6859,8 @@
         <v>0.53890000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19" thickBot="1">
-      <c r="A5" s="91"/>
+    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -6737,8 +6893,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17" thickBot="1">
-      <c r="A6" s="91"/>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -6764,8 +6920,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18">
-      <c r="A7" s="91"/>
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6797,13 +6953,13 @@
         <v>3.5333333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19" thickBot="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="84" t="s">
+    <row r="8" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="7">
         <f>SUM(E2:E7)</f>
         <v>681.94</v>
@@ -6825,8 +6981,8 @@
         <v>3.4209999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="90" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -6844,8 +7000,8 @@
         <v>332640</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="91"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -6861,8 +7017,8 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="91"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -6878,8 +7034,8 @@
         <v>62928</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="91"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -6895,8 +7051,8 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
@@ -6912,20 +7068,20 @@
         <v>95040</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="92"/>
-      <c r="B14" s="84" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="7">
         <f>SUM(E9:E13)</f>
         <v>787608</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="90" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6943,8 +7099,8 @@
         <v>332640</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="91"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
@@ -6960,8 +7116,8 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="91"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -6977,8 +7133,8 @@
         <v>62928</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="91"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -6994,8 +7150,8 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="91"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
@@ -7011,20 +7167,20 @@
         <v>95040</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="92"/>
-      <c r="B20" s="84" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
+      <c r="B20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="7">
         <f>SUM(E15:E19)</f>
         <v>787608</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="90" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -7042,8 +7198,8 @@
         <v>332640</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="91"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -7059,8 +7215,8 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="91"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -7076,8 +7232,8 @@
         <v>62928</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="91"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
@@ -7093,8 +7249,8 @@
         <v>118800</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="91"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
@@ -7110,25 +7266,25 @@
         <v>95040</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="92"/>
-      <c r="B26" s="84" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="8">
         <f>SUM(E21:E25)</f>
         <v>787608</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" thickBot="1">
-      <c r="A27" s="87" t="s">
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="9">
         <f>E8+E14+E20+E26</f>
         <v>2363505.94</v>
@@ -7154,43 +7310,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -7207,10 +7363,10 @@
         <f>C2*D2</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="F2" s="54"/>
-    </row>
-    <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="82"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
@@ -7225,10 +7381,10 @@
         <f>C3*D3</f>
         <v>162</v>
       </c>
-      <c r="F3" s="54"/>
-    </row>
-    <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="82"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
       <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
@@ -7244,10 +7400,10 @@
         <f>C4*D4</f>
         <v>18.48</v>
       </c>
-      <c r="F4" s="54"/>
-    </row>
-    <row r="5" spans="1:6" ht="16">
-      <c r="A5" s="82"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
       <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
@@ -7262,10 +7418,10 @@
         <f>C5*D5</f>
         <v>108</v>
       </c>
-      <c r="F5" s="54"/>
-    </row>
-    <row r="6" spans="1:6" ht="16">
-      <c r="A6" s="82"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
@@ -7279,23 +7435,23 @@
         <f>C6*D6</f>
         <v>64</v>
       </c>
-      <c r="F6" s="54"/>
-    </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="83"/>
-      <c r="B7" s="84" t="s">
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="51">
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="50">
         <f>SUM(E2:E6)</f>
         <v>654.88000000000011</v>
       </c>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="81" t="s">
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -7312,10 +7468,10 @@
         <f>C8*D8</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" ht="16">
-      <c r="A9" s="82"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
       <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
@@ -7330,10 +7486,10 @@
         <f>C9*D9</f>
         <v>162</v>
       </c>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="82"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
       <c r="B10" s="23" t="s">
         <v>2</v>
       </c>
@@ -7348,12 +7504,12 @@
         <f>C10*D10</f>
         <v>36.96</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="53" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
       <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
@@ -7368,10 +7524,10 @@
         <f>C11*D11</f>
         <v>108</v>
       </c>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="82"/>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
       <c r="B12" s="23" t="s">
         <v>4</v>
       </c>
@@ -7386,23 +7542,23 @@
         <f>C12*D12</f>
         <v>108</v>
       </c>
-      <c r="F12" s="54"/>
-    </row>
-    <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84" t="s">
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="51">
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="50">
         <f>SUM(E8:E12)</f>
         <v>717.36</v>
       </c>
-      <c r="F13" s="54"/>
-    </row>
-    <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="81" t="s">
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -7419,10 +7575,10 @@
         <f>C14*D14</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="F14" s="54"/>
-    </row>
-    <row r="15" spans="1:6" ht="16">
-      <c r="A15" s="82"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
       <c r="B15" s="23" t="s">
         <v>1</v>
       </c>
@@ -7437,10 +7593,10 @@
         <f>C15*D15</f>
         <v>162</v>
       </c>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="82"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
       <c r="B16" s="23" t="s">
         <v>2</v>
       </c>
@@ -7455,12 +7611,12 @@
         <f>C16*D16</f>
         <v>36.96</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="53" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
       <c r="B17" s="23" t="s">
         <v>5</v>
       </c>
@@ -7475,10 +7631,10 @@
         <f>C17*D17</f>
         <v>108</v>
       </c>
-      <c r="F17" s="54"/>
-    </row>
-    <row r="18" spans="1:6" ht="16">
-      <c r="A18" s="82"/>
+      <c r="F17" s="53"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -7493,23 +7649,23 @@
         <f>C18*D18</f>
         <v>108</v>
       </c>
-      <c r="F18" s="54"/>
-    </row>
-    <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84" t="s">
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="51">
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="50">
         <f>SUM(E14:E18)</f>
         <v>717.36</v>
       </c>
-      <c r="F19" s="54"/>
-    </row>
-    <row r="20" spans="1:6" ht="16">
-      <c r="A20" s="81" t="s">
+      <c r="F19" s="53"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -7526,10 +7682,10 @@
         <f>C20*D20</f>
         <v>302.40000000000003</v>
       </c>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="1:6" ht="16">
-      <c r="A21" s="82"/>
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
       <c r="B21" s="23" t="s">
         <v>1</v>
       </c>
@@ -7544,10 +7700,10 @@
         <f>C21*D21</f>
         <v>162</v>
       </c>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="1:6" ht="16">
-      <c r="A22" s="82"/>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
       <c r="B22" s="23" t="s">
         <v>2</v>
       </c>
@@ -7562,12 +7718,12 @@
         <f>C22*D22</f>
         <v>36.96</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="53" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
-      <c r="A23" s="82"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
       <c r="B23" s="23" t="s">
         <v>5</v>
       </c>
@@ -7582,10 +7738,10 @@
         <f>C23*D23</f>
         <v>108</v>
       </c>
-      <c r="F23" s="54"/>
-    </row>
-    <row r="24" spans="1:6" ht="16">
-      <c r="A24" s="82"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
       <c r="B24" s="23" t="s">
         <v>4</v>
       </c>
@@ -7600,33 +7756,33 @@
         <f>C24*D24</f>
         <v>108</v>
       </c>
-      <c r="F24" s="54"/>
-    </row>
-    <row r="25" spans="1:6" ht="16">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84" t="s">
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="51">
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="50">
         <f>SUM(E20:E24)</f>
         <v>717.36</v>
       </c>
-      <c r="F25" s="54"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" thickBot="1">
-      <c r="A26" s="87" t="s">
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="55">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="54">
         <f>E7+E13+E19+E25</f>
         <v>2806.9600000000005</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7647,24 +7803,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="80">
+    <row r="1" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -7714,7 +7870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
@@ -7768,7 +7924,7 @@
         <v>15023311.926605504</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>45</v>
       </c>
@@ -7822,7 +7978,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
@@ -7876,7 +8032,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>43</v>
       </c>
@@ -7930,12 +8086,12 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>E2/9.81</f>
         <v>69.514780835881751</v>
@@ -7953,7 +8109,7 @@
         <v>13816.062691131499</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8">
         <f t="shared" ref="E8:H8" si="4">E3/9.81</f>
         <v>80286.238532110088</v>
@@ -7971,7 +8127,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9">
         <f t="shared" ref="E9:H9" si="5">E4/9.81</f>
         <v>80286.238532110088</v>
@@ -7989,7 +8145,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10">
         <f t="shared" ref="E10:H10" si="6">E5/9.81</f>
         <v>80286.238532110088</v>
@@ -8007,7 +8163,7 @@
         <v>15956889.908256879</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="64">
+    <row r="14" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>48</v>
       </c>
@@ -8033,7 +8189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
@@ -8063,7 +8219,7 @@
         <v>66112200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>45</v>
       </c>
@@ -8093,7 +8249,7 @@
         <v>469746805.57499999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>39</v>
       </c>
@@ -8123,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>8</v>
       </c>
@@ -8161,28 +8317,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56:F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>56</v>
       </c>
@@ -8205,7 +8361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>59</v>
       </c>
@@ -8237,7 +8393,7 @@
         <v>284.91134164650379</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>39</v>
       </c>
@@ -8269,7 +8425,7 @@
         <v>226.96221717674811</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>37</v>
       </c>
@@ -8301,7 +8457,7 @@
         <v>151.30814478449875</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
@@ -8333,18 +8489,18 @@
         <v>75.654072392249375</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>40</v>
       </c>
@@ -8367,7 +8523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>59</v>
       </c>
@@ -8391,7 +8547,7 @@
         <v>0.19548103266627276</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>39</v>
       </c>
@@ -8415,7 +8571,7 @@
         <v>0.3512024873951074</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>37</v>
       </c>
@@ -8439,7 +8595,7 @@
         <v>0.40041477568194417</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>9</v>
       </c>
@@ -8463,15 +8619,15 @@
         <v>0.44609306906906904</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="93" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>40</v>
       </c>
@@ -8485,7 +8641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>59</v>
       </c>
@@ -8502,7 +8658,7 @@
         <v>363242.75717265345</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
@@ -8519,7 +8675,7 @@
         <v>363242.75717265345</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>37</v>
       </c>
@@ -8536,7 +8692,7 @@
         <v>412775.8604234698</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>9</v>
       </c>
@@ -8553,23 +8709,23 @@
         <v>412775.8604234698</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="93" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>40</v>
       </c>
@@ -8589,7 +8745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>59</v>
       </c>
@@ -8612,7 +8768,7 @@
         <v>0.78361135785227187</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>39</v>
       </c>
@@ -8635,7 +8791,7 @@
         <v>0.78361135785227187</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>37</v>
       </c>
@@ -8658,7 +8814,7 @@
         <v>0.89046745210485434</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>9</v>
       </c>
@@ -8681,7 +8837,7 @@
         <v>0.89046745210485434</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -8689,15 +8845,15 @@
       <c r="E30" s="38"/>
       <c r="F30" s="40"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="93" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>40</v>
       </c>
@@ -8711,7 +8867,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>59</v>
       </c>
@@ -8728,7 +8884,7 @@
         <v>224527.44078947377</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>39</v>
       </c>
@@ -8745,7 +8901,7 @@
         <v>224527.44078947377</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>37</v>
       </c>
@@ -8762,7 +8918,7 @@
         <v>255144.81907894745</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>9</v>
       </c>
@@ -8779,26 +8935,26 @@
         <v>255144.81907894745</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="93" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>40</v>
       </c>
@@ -8827,7 +8983,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>59</v>
       </c>
@@ -8862,7 +9018,7 @@
         <v>0.80822702899478049</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>39</v>
       </c>
@@ -8897,7 +9053,7 @@
         <v>0.80822702899478049</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>37</v>
       </c>
@@ -8932,7 +9088,7 @@
         <v>0.81818479723334248</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>9</v>
       </c>
@@ -8967,14 +9123,14 @@
         <v>0.81818479723334248</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="93" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>40</v>
       </c>
@@ -8985,7 +9141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>59</v>
       </c>
@@ -8998,7 +9154,7 @@
         <v>-20683.740000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>39</v>
       </c>
@@ -9011,7 +9167,7 @@
         <v>186153.66000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>37</v>
       </c>
@@ -9024,7 +9180,7 @@
         <v>390170.55000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>9</v>
       </c>
@@ -9037,25 +9193,25 @@
         <v>625213.05000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="93" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>40</v>
       </c>
@@ -9076,7 +9232,7 @@
       </c>
       <c r="G57" s="38"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>59</v>
       </c>
@@ -9102,7 +9258,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>39</v>
       </c>
@@ -9128,7 +9284,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>37</v>
       </c>
@@ -9154,7 +9310,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>9</v>
       </c>
@@ -9180,7 +9336,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -9191,7 +9347,7 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -9219,21 +9375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>128</v>
       </c>
@@ -9247,7 +9403,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
@@ -9261,7 +9417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>129</v>
       </c>
@@ -9275,7 +9431,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>130</v>
       </c>
@@ -9289,7 +9445,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>131</v>
       </c>
